--- a/coopie/src/test/resources/jp/sourceforge/hotchpotch/coopie/csv/PoiSheetReaderTest-formula.xlsx
+++ b/coopie/src/test/resources/jp/sourceforge/hotchpotch/coopie/csv/PoiSheetReaderTest-formula.xlsx
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -449,6 +449,22 @@
         <v>46</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <f>ROW()</f>
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="b">
+        <f>NOT(C4)</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/coopie/src/test/resources/jp/sourceforge/hotchpotch/coopie/csv/PoiSheetReaderTest-formula.xlsx
+++ b/coopie/src/test/resources/jp/sourceforge/hotchpotch/coopie/csv/PoiSheetReaderTest-formula.xlsx
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -465,6 +465,22 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <f>ROW()</f>
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>12.3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>34</v>
+      </c>
+      <c r="D5" s="1">
+        <f>B5+C5</f>
+        <v>46.3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/coopie/src/test/resources/jp/sourceforge/hotchpotch/coopie/csv/PoiSheetReaderTest-formula.xlsx
+++ b/coopie/src/test/resources/jp/sourceforge/hotchpotch/coopie/csv/PoiSheetReaderTest-formula.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -481,6 +481,20 @@
         <v>46.3</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <f>ROW()</f>
+        <v>6</v>
+      </c>
+      <c r="C6" t="str">
+        <f>B6&amp;B6</f>
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <f>C6</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
